--- a/TestResults/DayOfWeekGraphQL.xlsx
+++ b/TestResults/DayOfWeekGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -56,7 +56,7 @@
     <t>GraphQL</t>
   </si>
   <si>
-    <t>{"query":"{  daysOfWeek {      dayOfWeekNumber      dayOfWeekFullName      dayOfWeekShortName      }}"}</t>
+    <t>{"query":"{  daysOfWeek {      dayOfWeekNumber      dayOfWeekFullName      dayOfWeekShortName      }}","variables":null,"operationName":null}</t>
   </si>
   <si>
     <t/>
@@ -68,142 +68,137 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 15, below are the test steps for this test case</t>
+    <t>Total number of records matching between DB &amp; Response: 7, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 5
+DB_dayOfWeekNumber: 5
+Response_dayOfWeekFullName: Test_E
+DB_dayOfWeekFullName: Test_E
+Response_dayOfWeekShortName: Test_Ee
+DB_dayOfWeekShortName: Test_Ee
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 1
+DB_dayOfWeekNumber: 1
+Response_dayOfWeekFullName: Test_A
+DB_dayOfWeekFullName: Test_A
+Response_dayOfWeekShortName: Test_Aa
+DB_dayOfWeekShortName: Test_Aa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 2
+DB_dayOfWeekNumber: 2
+Response_dayOfWeekFullName: Test_B
+DB_dayOfWeekFullName: Test_B
+Response_dayOfWeekShortName: Test_Bb
+DB_dayOfWeekShortName: Test_Bb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 4
+DB_dayOfWeekNumber: 4
+Response_dayOfWeekFullName: Test_D
+DB_dayOfWeekFullName: Test_D
+Response_dayOfWeekShortName: Test_Dd
+DB_dayOfWeekShortName: Test_Dd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 7
+DB_dayOfWeekNumber: 7
+Response_dayOfWeekFullName: Test_G
+DB_dayOfWeekFullName: Test_G
+Response_dayOfWeekShortName: Test_Gg
+DB_dayOfWeekShortName: Test_Gg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_dayOfWeekNumber: 3
+DB_dayOfWeekNumber: 3
+Response_dayOfWeekFullName: Test_C
+DB_dayOfWeekFullName: Test_C
+Response_dayOfWeekShortName: Test_Cc
+DB_dayOfWeekShortName: Test_Cc
+</t>
   </si>
   <si>
     <t xml:space="preserve">Response_dayOfWeekNumber: 6
 DB_dayOfWeekNumber: 6
-Response_dayOfWeekFullName: Friday
-DB_dayOfWeekFullName: Friday
-Response_dayOfWeekShortName: Fri
-DB_dayOfWeekShortName: Fri
+Response_dayOfWeekFullName: Test_F
+DB_dayOfWeekFullName: Test_F
+Response_dayOfWeekShortName: Test_Ff
+DB_dayOfWeekShortName: Test_Ff
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 101
-DB_dayOfWeekNumber: 101
-Response_dayOfWeekFullName: Test_Susss
-DB_dayOfWeekFullName: Test_Susss
-Response_dayOfWeekShortName: Test_Sss
-DB_dayOfWeekShortName: Test_Sss
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 104
-DB_dayOfWeekNumber: 104
-Response_dayOfWeekFullName: Test_Wednesday
-DB_dayOfWeekFullName: Test_Wednesday
-Response_dayOfWeekShortName: Test_wed
-DB_dayOfWeekShortName: Test_wed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 3
-DB_dayOfWeekNumber: 3
-Response_dayOfWeekFullName: Tuesday
-DB_dayOfWeekFullName: Tuesday
-Response_dayOfWeekShortName: Tue
-DB_dayOfWeekShortName: Tue
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 10008
-DB_dayOfWeekNumber: 10008
-Response_dayOfWeekFullName: Test_Monday
-DB_dayOfWeekFullName: Test_Monday
-Response_dayOfWeekShortName: Test_Mon
-DB_dayOfWeekShortName: Test_Mon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 1
-DB_dayOfWeekNumber: 1
-Response_dayOfWeekFullName: Sunday
-DB_dayOfWeekFullName: Sunday
-Response_dayOfWeekShortName: Sun
-DB_dayOfWeekShortName: Sun
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 2
-DB_dayOfWeekNumber: 2
-Response_dayOfWeekFullName: Monday
-DB_dayOfWeekFullName: Monday
-Response_dayOfWeekShortName: Mon
-DB_dayOfWeekShortName: Mon
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 4
-DB_dayOfWeekNumber: 4
-Response_dayOfWeekFullName: Wednesday
-DB_dayOfWeekFullName: Wednesday
-Response_dayOfWeekShortName: Wed
-DB_dayOfWeekShortName: Wed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 5
-DB_dayOfWeekNumber: 5
-Response_dayOfWeekFullName: Thursday
-DB_dayOfWeekFullName: Thursday
-Response_dayOfWeekShortName: Thu
-DB_dayOfWeekShortName: Thu
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 7
-DB_dayOfWeekNumber: 7
-Response_dayOfWeekFullName: Saturday
-DB_dayOfWeekFullName: Saturday
-Response_dayOfWeekShortName: Sat
-DB_dayOfWeekShortName: Sat
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 102
-DB_dayOfWeekNumber: 102
-Response_dayOfWeekFullName: Test_Mondays
-DB_dayOfWeekFullName: Test_Mondays
-Response_dayOfWeekShortName: Test_mons
-DB_dayOfWeekShortName: Test_mons
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 103
-DB_dayOfWeekNumber: 103
-Response_dayOfWeekFullName: Test_Tuesday
-DB_dayOfWeekFullName: Test_Tuesday
-Response_dayOfWeekShortName: Test_tue
-DB_dayOfWeekShortName: Test_tue
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 106
-DB_dayOfWeekNumber: 106
-Response_dayOfWeekFullName: Test_Friday
-DB_dayOfWeekFullName: Test_Friday
-Response_dayOfWeekShortName: Test_Frid
-DB_dayOfWeekShortName: Test_Frid
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 107
-DB_dayOfWeekNumber: 107
-Response_dayOfWeekFullName: Test_Saturday
-DB_dayOfWeekFullName: Test_Saturday
-Response_dayOfWeekShortName: Test_Sat
-DB_dayOfWeekShortName: Test_Sat
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 105
-DB_dayOfWeekNumber: 105
-Response_dayOfWeekFullName: Test_thursday
-DB_dayOfWeekFullName: Test_thursday
-Response_dayOfWeekShortName: Test_Thur
-DB_dayOfWeekShortName: Test_Thur
-</t>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the invalid any one of the attribute name in request body.</t>
+  </si>
+  <si>
+    <t>{"query":"{  daysOfWeek {      dayOfWeekNumbe      dayOfWeekFullName      dayOfWeekShortName      }}","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify the error message when passing the multiple (2 attribute) invalid attribute name in request body.</t>
+  </si>
+  <si>
+    <t>{"query":"{  daysOfWeek {      dayOfWeekNumbe      dayOfWeekFullNam      dayOfWeekShortNam      }}","variables":null,"operationName":null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"errors":
+		[
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
+				"path":null
+			},
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekFullNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekFullNam'",
+				"path":null
+			},
+			{
+				"error":"ValidationError",
+				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekShortNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekShortNam'",
+				"path":null
+			}
+		]
+	},
+	"data":null
+}</t>
   </si>
 </sst>
 </file>
@@ -211,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="178">
+  <fonts count="112">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -224,336 +219,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1172,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1505,204 +1170,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2053,31 +1520,29 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="90">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="91">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="92">
         <v>13</v>
       </c>
       <c r="D10" t="s" s="93">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s" s="94">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="95">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s" s="96">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G10" s="96"/>
       <c r="H10" t="s" s="97">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s" s="98">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s" s="99">
         <v>17</v>
@@ -2089,31 +1554,29 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
       </c>
       <c r="D11" t="s" s="104">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="105">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s" s="106">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s" s="107">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G11" s="107"/>
       <c r="H11" t="s" s="108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>17</v>
@@ -2122,222 +1585,6 @@
         <v>15</v>
       </c>
       <c r="L11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="112">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s" s="113">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="114">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="115">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="116">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s" s="117">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="118">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s" s="119">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s" s="120">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s" s="121">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s" s="122">
-        <v>15</v>
-      </c>
-      <c r="L12"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="123">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s" s="124">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="125">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="126">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="127">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s" s="128">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s" s="129">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s" s="130">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s" s="131">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s" s="132">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s" s="133">
-        <v>15</v>
-      </c>
-      <c r="L13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="134">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s" s="135">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="136">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s" s="137">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="138">
-        <v>15</v>
-      </c>
-      <c r="F14" t="s" s="139">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s" s="140">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s" s="141">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s" s="142">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s" s="143">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s" s="144">
-        <v>15</v>
-      </c>
-      <c r="L14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="145">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s" s="146">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s" s="147">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="148">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="149">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s" s="150">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s" s="151">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s" s="152">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s" s="153">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s" s="154">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s" s="155">
-        <v>15</v>
-      </c>
-      <c r="L15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="156">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s" s="157">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="158">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="159">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="160">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s" s="161">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s" s="162">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s" s="163">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s" s="164">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s" s="165">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s" s="166">
-        <v>15</v>
-      </c>
-      <c r="L16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="167">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="168">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s" s="169">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s" s="170">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="171">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s" s="172">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s" s="173">
-        <v>15</v>
-      </c>
-      <c r="H17" t="s" s="174">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s" s="175">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s" s="176">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s" s="177">
-        <v>15</v>
-      </c>
-      <c r="L17"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/DayOfWeekGraphQL.xlsx
+++ b/TestResults/DayOfWeekGraphQL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -62,78 +62,54 @@
     <t/>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 7, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 5
-DB_dayOfWeekNumber: 5
-Response_dayOfWeekFullName: Test_E
-DB_dayOfWeekFullName: Test_E
-Response_dayOfWeekShortName: Test_Ee
-DB_dayOfWeekShortName: Test_Ee
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 1
-DB_dayOfWeekNumber: 1
-Response_dayOfWeekFullName: Test_A
-DB_dayOfWeekFullName: Test_A
-Response_dayOfWeekShortName: Test_Aa
-DB_dayOfWeekShortName: Test_Aa
-</t>
+    <t>Total number of records matching between DB &amp; Response: 4, below are the test steps for this test case</t>
   </si>
   <si>
     <t xml:space="preserve">Response_dayOfWeekNumber: 2
 DB_dayOfWeekNumber: 2
-Response_dayOfWeekFullName: Test_B
-DB_dayOfWeekFullName: Test_B
-Response_dayOfWeekShortName: Test_Bb
-DB_dayOfWeekShortName: Test_Bb
+Response_dayOfWeekFullName: testayFrlqayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFrqg
+DB_dayOfWeekFullName: testayFrlqayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFridayFrqg
+Response_dayOfWeekShortName: Thrusdaay
+DB_dayOfWeekShortName: Thrusdaay
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_dayOfWeekNumber: 4
 DB_dayOfWeekNumber: 4
-Response_dayOfWeekFullName: Test_D
-DB_dayOfWeekFullName: Test_D
-Response_dayOfWeekShortName: Test_Dd
-DB_dayOfWeekShortName: Test_Dd
+Response_dayOfWeekFullName: 
+DB_dayOfWeekFullName: 
+Response_dayOfWeekShortName: Test_W
+DB_dayOfWeekShortName: Test_W
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_dayOfWeekNumber: 7
 DB_dayOfWeekNumber: 7
-Response_dayOfWeekFullName: Test_G
-DB_dayOfWeekFullName: Test_G
-Response_dayOfWeekShortName: Test_Gg
-DB_dayOfWeekShortName: Test_Gg
+Response_dayOfWeekFullName: Test_Saturday
+DB_dayOfWeekFullName: Test_Saturday
+Response_dayOfWeekShortName: TestSatur
+DB_dayOfWeekShortName: TestSatur
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_dayOfWeekNumber: 3
 DB_dayOfWeekNumber: 3
-Response_dayOfWeekFullName: Test_C
-DB_dayOfWeekFullName: Test_C
-Response_dayOfWeekShortName: Test_Cc
-DB_dayOfWeekShortName: Test_Cc
+Response_dayOfWeekFullName: 
+DB_dayOfWeekFullName: 
+Response_dayOfWeekShortName: Test_T
+DB_dayOfWeekShortName: Test_T
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfWeekNumber: 6
-DB_dayOfWeekNumber: 6
-Response_dayOfWeekFullName: Test_F
-DB_dayOfWeekFullName: Test_F
-Response_dayOfWeekShortName: Test_Ff
-DB_dayOfWeekShortName: Test_Ff
-</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -144,6 +120,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -151,16 +133,27 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
+		"transactionId":"d327bd88-66fd-485b-bec4-70f653547b3f",
+		"timeStamp":"2020-07-14T08:45:20.639+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
 			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
-				"path":null
+				"errorMessage":"Request Submitted With Error"
 			}
-		]
+		}
 	},
-	"data":null
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
+			"path":null
+		}
+	]
 }</t>
   </si>
   <si>
@@ -178,26 +171,37 @@
 	"meta":
 	{
 		"version":"1.0.0",
-		"errors":
-		[
+		"transactionId":"2c938f0a-4a78-4921-835b-a526618d79c1",
+		"timeStamp":"2020-07-14T08:45:22.036+0000",
+		"statusCode":"400",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
 			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
-				"path":null
-			},
-			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekFullNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekFullNam'",
-				"path":null
-			},
-			{
-				"error":"ValidationError",
-				"message":"Validation error of type FieldUndefined: Field 'dayOfWeekShortNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekShortNam'",
-				"path":null
+				"errorMessage":"Request Submitted With Error"
 			}
-		]
+		}
 	},
-	"data":null
+	"errors":
+	[
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'dayOfWeekNumbe' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekNumbe'",
+			"path":null
+		},
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'dayOfWeekFullNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekFullNam'",
+			"path":null
+		},
+		{
+			"error":"ValidationError",
+			"message":"Validation error of type FieldUndefined: Field 'dayOfWeekShortNam' in type 'RefDayOfWeek' is undefined @ 'daysOfWeek/dayOfWeekShortNam'",
+			"path":null
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -206,7 +210,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="112">
+  <fonts count="79">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -219,171 +223,6 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -837,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1071,105 +910,6 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment wrapText="true" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1251,18 +991,20 @@
       <c r="F2" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" t="s" s="8">
+        <v>16</v>
+      </c>
       <c r="H2" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="10">
         <v>15</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2"/>
     </row>
@@ -1292,10 +1034,10 @@
         <v>15</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s" s="23">
         <v>15</v>
@@ -1328,10 +1070,10 @@
         <v>15</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s" s="33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s" s="34">
         <v>15</v>
@@ -1364,10 +1106,10 @@
         <v>15</v>
       </c>
       <c r="I5" t="s" s="43">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s" s="44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s" s="45">
         <v>15</v>
@@ -1400,10 +1142,10 @@
         <v>15</v>
       </c>
       <c r="I6" t="s" s="54">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s" s="55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s" s="56">
         <v>15</v>
@@ -1412,34 +1154,34 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="58">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="59">
         <v>13</v>
       </c>
       <c r="D7" t="s" s="60">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s" s="61">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s" s="62">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s" s="63">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s" s="64">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="65">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s" s="66">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s" s="67">
         <v>15</v>
@@ -1448,143 +1190,39 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="68">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="69">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="70">
         <v>13</v>
       </c>
       <c r="D8" t="s" s="71">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="72">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s" s="73">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s" s="74">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s" s="75">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="76">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s" s="77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s" s="78">
         <v>15</v>
       </c>
       <c r="L8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="79">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="80">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="81">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s" s="82">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="83">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s" s="84">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s" s="85">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s" s="86">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s" s="87">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s" s="88">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s" s="89">
-        <v>15</v>
-      </c>
-      <c r="L9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="90">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="91">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="92">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="93">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s" s="94">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s" s="95">
-        <v>29</v>
-      </c>
-      <c r="G10" s="96"/>
-      <c r="H10" t="s" s="97">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s" s="98">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s" s="99">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s" s="100">
-        <v>15</v>
-      </c>
-      <c r="L10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="101">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="102">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="103">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s" s="105">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s" s="106">
-        <v>29</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" t="s" s="108">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s" s="109">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s" s="110">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s" s="111">
-        <v>15</v>
-      </c>
-      <c r="L11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
